--- a/excel/files_13_data_visualization_solutions/exercise04/exercise04.xlsx
+++ b/excel/files_13_data_visualization_solutions/exercise04/exercise04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis2/data_analysis/excel/files_13_data_visualization_solutions/exercise04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis_master_dgv/data_analysis/excel/files_13_data_visualization_solutions/exercise04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC104804C9D87D685ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BA91AF3-70BF-4B58-B382-64930A602DE2}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_F25DC773A252ABDACC104804C9D87D685ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{079D420C-F315-4BF7-B296-A9BEADD008AE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food_Product_Emissions" sheetId="4" r:id="rId1"/>
@@ -378,17 +378,20 @@
             <c:strRef>
               <c:f>Food_Product_Emissions!$A$24:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Olive Oil</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Palm Oil</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Rapeseed Oil</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Soybean Oil</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Sunflower Oil</c:v>
                 </c:pt>
               </c:strCache>
@@ -399,17 +402,20 @@
               <c:f>Food_Product_Emissions!$D$24:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.2720000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.1070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.343</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.5189999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.1480000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -449,17 +455,20 @@
             <c:strRef>
               <c:f>Food_Product_Emissions!$A$24:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Olive Oil</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Palm Oil</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Rapeseed Oil</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Soybean Oil</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Sunflower Oil</c:v>
                 </c:pt>
               </c:strCache>
@@ -470,17 +479,20 @@
               <c:f>Food_Product_Emissions!$E$24:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.264</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.193</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.311</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.22900000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -520,17 +532,20 @@
             <c:strRef>
               <c:f>Food_Product_Emissions!$A$24:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Olive Oil</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Palm Oil</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Rapeseed Oil</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Soybean Oil</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Sunflower Oil</c:v>
                 </c:pt>
               </c:strCache>
@@ -541,17 +556,20 @@
               <c:f>Food_Product_Emissions!$F$24:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.48199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.19</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.29899999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.20100000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -591,17 +609,20 @@
             <c:strRef>
               <c:f>Food_Product_Emissions!$A$24:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Olive Oil</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Palm Oil</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Rapeseed Oil</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Soybean Oil</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Sunflower Oil</c:v>
                 </c:pt>
               </c:strCache>
@@ -612,17 +633,20 @@
               <c:f>Food_Product_Emissions!$G$24:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.86099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.84399999999999997</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.84899999999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.85299999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -662,17 +686,20 @@
             <c:strRef>
               <c:f>Food_Product_Emissions!$A$24:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Olive Oil</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Palm Oil</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Rapeseed Oil</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Soybean Oil</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Sunflower Oil</c:v>
                 </c:pt>
               </c:strCache>
@@ -683,17 +710,20 @@
               <c:f>Food_Product_Emissions!$H$24:$H$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1637,6 +1667,7 @@
     <filterColumn colId="0">
       <filters>
         <filter val="Olive Oil"/>
+        <filter val="Palm Oil"/>
         <filter val="Rapeseed Oil"/>
         <filter val="Soybean Oil"/>
         <filter val="Sunflower Oil"/>
@@ -1929,21 +1960,21 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +2009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2013,7 +2044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2048,7 +2079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2083,7 +2114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2118,7 +2149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2153,7 +2184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2188,7 +2219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2223,7 +2254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2258,7 +2289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2293,7 +2324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2328,7 +2359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2363,7 +2394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2398,7 +2429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2433,7 +2464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2468,7 +2499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2503,7 +2534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2538,7 +2569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2573,7 +2604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2608,7 +2639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2643,7 +2674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2678,7 +2709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2713,7 +2744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2748,7 +2779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2783,7 +2814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2818,7 +2849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2853,7 +2884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2888,7 +2919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2923,7 +2954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2958,7 +2989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2993,7 +3024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3028,7 +3059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3063,7 +3094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3098,7 +3129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -3133,7 +3164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -3168,7 +3199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -3203,7 +3234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -3238,7 +3269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -3273,7 +3304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -3308,7 +3339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -3343,7 +3374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -3378,7 +3409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -3413,7 +3444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -3448,7 +3479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -3499,7 +3530,7 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3512,7 +3543,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
